--- a/app/static/excel/weekoff.xlsx
+++ b/app/static/excel/weekoff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my Project\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79BB49B-D98C-4A2E-AA11-0999A9BE5EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED058F-393F-422B-B47B-81B84EF56B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3397D7CD-685C-4089-95EE-C29F2CBF8C99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
   <si>
     <t>empid</t>
   </si>
@@ -33,44 +33,14 @@
     <t>weekoff</t>
   </si>
   <si>
-    <t>30/1/2024</t>
-  </si>
-  <si>
-    <t>1/02/2024</t>
-  </si>
-  <si>
-    <t>16/02/2033</t>
-  </si>
-  <si>
-    <t>16/02/2034</t>
-  </si>
-  <si>
-    <t>16/02/2035</t>
-  </si>
-  <si>
-    <t>16/02/2036</t>
-  </si>
-  <si>
-    <t>16/02/2037</t>
-  </si>
-  <si>
-    <t>16/02/2038</t>
-  </si>
-  <si>
-    <t>16/02/2039</t>
-  </si>
-  <si>
-    <t>16/02/2040</t>
-  </si>
-  <si>
-    <t>16/02/2041</t>
+    <t>6/2/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,12 +54,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -113,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -121,37 +85,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD3D3D3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD3D3D3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,13 +417,13 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -485,147 +431,147 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>10002</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>10003</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
+      <c r="A3">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>10007</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
+      <c r="A4">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>10008</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>10011</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="A6">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>10012</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
+      <c r="A7">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>10013</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
+      <c r="A8">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>10020</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
+      <c r="A9">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>10025</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
+      <c r="A10">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10038</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10039</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
+      <c r="A12">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>10048</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
+      <c r="A13">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>10049</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
+      <c r="A14">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>10062</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
+      <c r="A15">
+        <v>94</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>10063</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
+      <c r="A16">
+        <v>95</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>10071</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
+      <c r="A17">
+        <v>96</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>10082</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
+      <c r="A18">
+        <v>97</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>10085</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/weekoff.xlsx
+++ b/app/static/excel/weekoff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my Project\KKL-Attendance-System\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED058F-393F-422B-B47B-81B84EF56B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3582E9A-FC4B-444D-8789-263DDD4E67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3397D7CD-685C-4089-95EE-C29F2CBF8C99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>empid</t>
   </si>
@@ -33,7 +33,58 @@
     <t>weekoff</t>
   </si>
   <si>
-    <t>6/2/2024</t>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>2024-06-22</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2024-08-18</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>2024-06-08</t>
   </si>
 </sst>
 </file>
@@ -56,17 +107,17 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="3"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,16 +140,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,165 +466,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4473B9F4-D24C-45E0-AFCF-05BDA5CFFD52}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>81</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>82</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>83</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>84</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>85</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>86</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>87</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>88</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>89</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>91</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>92</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>93</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>94</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>95</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>96</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>97</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>98</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
